--- a/DataScience/02_Pandas_2/RelatorioLojas/01_RelatorioLojas.xlsx
+++ b/DataScience/02_Pandas_2/RelatorioLojas/01_RelatorioLojas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,22 @@
         <v>5.97</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Loja G</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>560.8499999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
